--- a/data/trans_bre/P16A08-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A08-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2838199851649535</v>
+        <v>0.366836370143169</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.02115467449796994</v>
+        <v>-0.002442196242437205</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.2091705057244961</v>
+        <v>-0.4211992674052595</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5105711668880659</v>
+        <v>0.471536403579816</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.08581567207218847</v>
+        <v>0.1451666605390719</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.03172056546951642</v>
+        <v>-0.007140339101286037</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.08486905470874649</v>
+        <v>-0.1242031527576761</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.008254564432782281</v>
+        <v>0.03182248079040274</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.033067465197822</v>
+        <v>2.969204711482718</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.248569083070713</v>
+        <v>3.342862048036806</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.069734484336807</v>
+        <v>3.065198873605949</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.593771196820545</v>
+        <v>3.557487379039978</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.308069253951002</v>
+        <v>2.263719640095688</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.674572969675967</v>
+        <v>1.960547317871363</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.636831663957713</v>
+        <v>1.6327615960233</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4.047720812863143</v>
+        <v>3.86440960875231</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7146031348251911</v>
+        <v>0.625155808576291</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.051547627918515</v>
+        <v>1.139300593082174</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.522940910018312</v>
+        <v>1.492100352988718</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02729140965304102</v>
+        <v>-0.1609317639443798</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.263217121488956</v>
+        <v>0.2160782864661089</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2620214776635877</v>
+        <v>0.2936635180680962</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4273573026044373</v>
+        <v>0.4303523852436785</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.004160967089896864</v>
+        <v>-0.03793004620434864</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.141350980517384</v>
+        <v>3.215676059448253</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.902314300542593</v>
+        <v>3.93975205440399</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.05649020253816</v>
+        <v>4.014470443263728</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.473479582812849</v>
+        <v>2.405844265640364</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.005736767417227</v>
+        <v>1.892934197265921</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.434379445078982</v>
+        <v>1.414030528443472</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.663818251344853</v>
+        <v>1.744546320266595</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7785245207204882</v>
+        <v>0.7679340743155524</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.515571040465663</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.951042210955455</v>
+        <v>2.951042210955456</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004644014430248727</v>
@@ -849,7 +849,7 @@
         <v>0.5555880207793044</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.9840229072790744</v>
+        <v>0.9840229072790748</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.731412969163372</v>
+        <v>-2.498611207939821</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.442447934966637</v>
+        <v>-1.521912150806731</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.1602227570345876</v>
+        <v>-0.5781059694577252</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5772557663023228</v>
+        <v>0.8302029048057988</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5305846376135405</v>
+        <v>-0.4883867148399334</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2309160224746458</v>
+        <v>-0.2409120351339874</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.03985611465895124</v>
+        <v>-0.1181560004018755</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.08413939296969124</v>
+        <v>0.1239415297171063</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.747825218847191</v>
+        <v>2.611940999901362</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.347325303548397</v>
+        <v>5.313828367403985</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.418004374951152</v>
+        <v>5.476092425475517</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.982345083788624</v>
+        <v>5.140703059616748</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.042559591303179</v>
+        <v>0.8911556219554424</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.45287449188093</v>
+        <v>1.51385048214759</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.698264801485778</v>
+        <v>1.681365792542679</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>2.56895308291331</v>
+        <v>2.486675033308337</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.737853590054294</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.484625048931987</v>
+        <v>0.4846250489319867</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6969752551687676</v>
+        <v>0.620277893478245</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.140555964981046</v>
+        <v>1.090190227030696</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.363292918419023</v>
+        <v>1.194697379722792</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.7081489368524755</v>
+        <v>0.7500493552302704</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2534966900198985</v>
+        <v>0.2146194672094519</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2905449993305121</v>
+        <v>0.2764121614517646</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3750282963778281</v>
+        <v>0.3395473300146367</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.179925377409032</v>
+        <v>0.1914609206095081</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.50853639968064</v>
+        <v>2.383889648058115</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.216252725532746</v>
+        <v>3.062224053757776</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.278820043770168</v>
+        <v>3.272001104372096</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.56242032286752</v>
+        <v>2.492938349632183</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.242778745808538</v>
+        <v>1.211786935553599</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.06633429308325</v>
+        <v>1.068765402351054</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.212919638429711</v>
+        <v>1.25156922030533</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8851336107578008</v>
+        <v>0.8729654085873956</v>
       </c>
     </row>
     <row r="16">
